--- a/glproject/src/main/resources/Airbus A320.xlsx
+++ b/glproject/src/main/resources/Airbus A320.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>taskNumber</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -37,44 +40,73 @@
     <t>hangar</t>
   </si>
   <si>
-    <t>duration</t>
-  </si>
-  <si>
     <t>men</t>
   </si>
   <si>
     <t>applicability</t>
   </si>
   <si>
-    <t>12-33-02-000-801</t>
-  </si>
-  <si>
-    <t>Aileron Centering Mechanism Assembly</t>
+    <t>200001-01-1</t>
   </si>
   <si>
     <t>Airbus A320</t>
   </si>
   <si>
-    <t>12-33-02-000-802</t>
-  </si>
-  <si>
-    <t>Quadrant - Spoiler Control, Shaft Assembly </t>
-  </si>
-  <si>
-    <t>12-33-02-000-803</t>
-  </si>
-  <si>
-    <t>GENERAL VISUAL INSPECTION OF P WIRING ROUTE INSTALLED</t>
+    <t>HIRF/LIGHTNING PROTECTION-WING, CHECK BONDING MEASUREMENT OF CLAMPS WITH A LOOP MRB REFERENCE :
+ TESTER FROM FUSELAGE TO RIB 9 </t>
+  </si>
+  <si>
+    <t>I: 36 MO</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>PRE 24943, (57-1086) </t>
+  </si>
+  <si>
+    <t>200001-02-1</t>
+  </si>
+  <si>
+    <t>511,520,611,620</t>
+  </si>
+  <si>
+    <t>CHECK THAT THE CONNECTOR IS CORRECTLY TIGHTENED BY MEASUREMENT OF THE RESISTANCE WITH A LOOP TESTER: - 4005VC, 4007VC, 4009VC, 4011VC, LH SIDE - 4013VC, 4015VC, 4017VC, 4019VC, LH SIDE - 4006VC, 4008VC, 4010VC, 4012VC, RH SIDE - 4014VC, 4016VC, 4018VC, 4020VC, RH SIDE - ACCESS: 521EB 521GB 522AB </t>
+  </si>
+  <si>
+    <t>I: 72 MO</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>200002-01-1</t>
+  </si>
+  <si>
+    <t>GENERAL VISUAL INSPECTION OF ELEMENTS FITTED ON THE FOLLOWING HARNESSES: - 405VB, 406VB, 407VB, 408VB, 409VB, LH SIDE - - 400VB, 401VB, 402VB, 403VB, 404VB, RH SIDE - ACCESS: 334AB 334BB 334CB 334DB 334EB</t>
+  </si>
+  <si>
+    <t>200003-01-1</t>
+  </si>
+  <si>
+    <t>HIRF/LIGHTNING PROTECTION-VERTICAL FIN, GENERAL VISUAL INSPECTION OF ELEMENTS FITTED ON THE FOLLOWING HARNESSES: - 4202VB, 4204VB - ACCESS: 321AL </t>
+  </si>
+  <si>
+    <t>200003-03-1</t>
+  </si>
+  <si>
+    <t>HIRF/LIGHTNING PROTECTION-VERTICAL FIN, GENERAL VISUAL INSPECTION OF ELEMENTS FITTED ON THE FOLLOWING HARNESSES: - 4202VB, 4204VB - ACCESS: 324AT </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,16 +130,31 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -159,21 +206,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -193,129 +260,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="110.862244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.6020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="13.6326530612245"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="C2" s="4" t="n">
+        <v>571.671</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>334.344</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="G4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/glproject/src/main/resources/Airbus A320.xlsx
+++ b/glproject/src/main/resources/Airbus A320.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>taskNumber</t>
   </si>
@@ -56,10 +56,10 @@
  TESTER FROM FUSELAGE TO RIB 9 </t>
   </si>
   <si>
-    <t>I: 36 MO</t>
-  </si>
-  <si>
-    <t>TRUE</t>
+    <t>MO 36</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
   <si>
     <t>PRE 24943, (57-1086) </t>
@@ -68,13 +68,10 @@
     <t>200001-02-1</t>
   </si>
   <si>
-    <t>511,520,611,620</t>
-  </si>
-  <si>
     <t>CHECK THAT THE CONNECTOR IS CORRECTLY TIGHTENED BY MEASUREMENT OF THE RESISTANCE WITH A LOOP TESTER: - 4005VC, 4007VC, 4009VC, 4011VC, LH SIDE - 4013VC, 4015VC, 4017VC, 4019VC, LH SIDE - 4006VC, 4008VC, 4010VC, 4012VC, RH SIDE - 4014VC, 4016VC, 4018VC, 4020VC, RH SIDE - ACCESS: 521EB 521GB 522AB </t>
   </si>
   <si>
-    <t>I: 72 MO</t>
+    <t>MO 72</t>
   </si>
   <si>
     <t>ALL</t>
@@ -130,6 +127,14 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -137,22 +142,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -206,40 +203,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,20 +264,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="110.862244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="108.397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,134 +311,134 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>571.671</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="4" t="n">
+        <v>511</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>334</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>334.344</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>321</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="5" t="n">
+        <v>324</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I6" s="0"/>
     </row>
